--- a/techniqo/data_new_ticker/UJJIVANSFB.xlsx
+++ b/techniqo/data_new_ticker/UJJIVANSFB.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G191"/>
+  <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7111,6 +7111,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="C192" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="D192" t="n">
+        <v>34</v>
+      </c>
+      <c r="E192" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F192" t="n">
+        <v>599766</v>
+      </c>
+      <c r="G192" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="C193" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="D193" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="E193" t="n">
+        <v>33.95</v>
+      </c>
+      <c r="F193" t="n">
+        <v>533650</v>
+      </c>
+      <c r="G193" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/UJJIVANSFB.xlsx
+++ b/techniqo/data_new_ticker/UJJIVANSFB.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G193"/>
+  <dimension ref="A1:G195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7161,6 +7161,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="C194" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D194" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="E194" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="F194" t="n">
+        <v>518218</v>
+      </c>
+      <c r="G194" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="C195" t="n">
+        <v>35</v>
+      </c>
+      <c r="D195" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="E195" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F195" t="n">
+        <v>612621</v>
+      </c>
+      <c r="G195" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
